--- a/TableTemplates/bin/Debug/Book1.xlsx
+++ b/TableTemplates/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R05d0a236f25a420f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdcbdd032af6845ea"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0786dabd95c248fa"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8025066d6e3c43ae"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{f8c799e7-37b4-4ba3-a05a-5d0d9ac15c73}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a32b8bc6-f919-4cf7-bde7-a0812e59f5e2}">
   <we:reference id="e412e0ef-44dd-4685-b5f7-dfd7a001e628" version="1.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/TableTemplates/bin/Debug/Book1.xlsx
+++ b/TableTemplates/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rdcbdd032af6845ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R942ba8a39dc14543"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8025066d6e3c43ae"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8eec913461a64f59"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a32b8bc6-f919-4cf7-bde7-a0812e59f5e2}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c99428f1-658e-44ca-ac5c-9f9cf8c5dc6b}">
   <we:reference id="e412e0ef-44dd-4685-b5f7-dfd7a001e628" version="1.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/TableTemplates/bin/Debug/Book1.xlsx
+++ b/TableTemplates/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R942ba8a39dc14543"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R68d6452a19a24898"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8eec913461a64f59"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raaf9e109b8df4ba9"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c99428f1-658e-44ca-ac5c-9f9cf8c5dc6b}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{395e63d4-0b09-4e67-9247-b895053477b8}">
   <we:reference id="e412e0ef-44dd-4685-b5f7-dfd7a001e628" version="1.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
